--- a/natmiOut/OldD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H2">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I2">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J2">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9663200786891</v>
+        <v>31.94073466666667</v>
       </c>
       <c r="N2">
-        <v>25.9663200786891</v>
+        <v>95.822204</v>
       </c>
       <c r="O2">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414605</v>
       </c>
       <c r="P2">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414606</v>
       </c>
       <c r="Q2">
-        <v>51.52840186737343</v>
+        <v>103.121268745292</v>
       </c>
       <c r="R2">
-        <v>51.52840186737343</v>
+        <v>928.0914187076279</v>
       </c>
       <c r="S2">
-        <v>0.01191492465998809</v>
+        <v>0.02158323785499276</v>
       </c>
       <c r="T2">
-        <v>0.01191492465998809</v>
+        <v>0.02158323785499277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H3">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I3">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J3">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.3946282206765</v>
+        <v>38.58528233333333</v>
       </c>
       <c r="N3">
-        <v>38.3946282206765</v>
+        <v>115.755847</v>
       </c>
       <c r="O3">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="P3">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="Q3">
-        <v>76.19153682570237</v>
+        <v>124.573317133531</v>
       </c>
       <c r="R3">
-        <v>76.19153682570237</v>
+        <v>1121.159854201779</v>
       </c>
       <c r="S3">
-        <v>0.01761778724175337</v>
+        <v>0.02607314249322788</v>
       </c>
       <c r="T3">
-        <v>0.01761778724175337</v>
+        <v>0.02607314249322788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H4">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I4">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J4">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.1922206325545</v>
+        <v>24.37857333333333</v>
       </c>
       <c r="N4">
-        <v>24.1922206325545</v>
+        <v>73.13571999999999</v>
       </c>
       <c r="O4">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="P4">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="Q4">
-        <v>48.0078217876364</v>
+        <v>78.70668719955999</v>
       </c>
       <c r="R4">
-        <v>48.0078217876364</v>
+        <v>708.3601847960399</v>
       </c>
       <c r="S4">
-        <v>0.01110086008803633</v>
+        <v>0.01647327628214596</v>
       </c>
       <c r="T4">
-        <v>0.01110086008803633</v>
+        <v>0.01647327628214596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H5">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I5">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J5">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.9663200786891</v>
+        <v>31.94073466666667</v>
       </c>
       <c r="N5">
-        <v>25.9663200786891</v>
+        <v>95.822204</v>
       </c>
       <c r="O5">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414605</v>
       </c>
       <c r="P5">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414606</v>
       </c>
       <c r="Q5">
-        <v>240.8273727165657</v>
+        <v>296.4723340800014</v>
       </c>
       <c r="R5">
-        <v>240.8273727165657</v>
+        <v>2668.251006720012</v>
       </c>
       <c r="S5">
-        <v>0.05568657086176029</v>
+        <v>0.0620515339049849</v>
       </c>
       <c r="T5">
-        <v>0.05568657086176029</v>
+        <v>0.06205153390498491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H6">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I6">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J6">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.3946282206765</v>
+        <v>38.58528233333333</v>
       </c>
       <c r="N6">
-        <v>38.3946282206765</v>
+        <v>115.755847</v>
       </c>
       <c r="O6">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="P6">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="Q6">
-        <v>356.0950266650813</v>
+        <v>358.1466999391657</v>
       </c>
       <c r="R6">
-        <v>356.0950266650813</v>
+        <v>3223.320299452491</v>
       </c>
       <c r="S6">
-        <v>0.08233993799053496</v>
+        <v>0.07495995254733177</v>
       </c>
       <c r="T6">
-        <v>0.08233993799053496</v>
+        <v>0.07495995254733179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H7">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I7">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J7">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.1922206325545</v>
+        <v>24.37857333333333</v>
       </c>
       <c r="N7">
-        <v>24.1922206325545</v>
+        <v>73.13571999999999</v>
       </c>
       <c r="O7">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="P7">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="Q7">
-        <v>224.3733003930422</v>
+        <v>226.2807231299067</v>
       </c>
       <c r="R7">
-        <v>224.3733003930422</v>
+        <v>2036.52650816916</v>
       </c>
       <c r="S7">
-        <v>0.05188189179196535</v>
+        <v>0.04736045947393866</v>
       </c>
       <c r="T7">
-        <v>0.05188189179196535</v>
+        <v>0.04736045947393866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H8">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I8">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J8">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.9663200786891</v>
+        <v>31.94073466666667</v>
       </c>
       <c r="N8">
-        <v>25.9663200786891</v>
+        <v>95.822204</v>
       </c>
       <c r="O8">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414605</v>
       </c>
       <c r="P8">
-        <v>0.2932285811098649</v>
+        <v>0.3365562672414606</v>
       </c>
       <c r="Q8">
-        <v>975.7680782817763</v>
+        <v>1208.418573813465</v>
       </c>
       <c r="R8">
-        <v>975.7680782817763</v>
+        <v>10875.76716432119</v>
       </c>
       <c r="S8">
-        <v>0.2256270855881165</v>
+        <v>0.2529214954814828</v>
       </c>
       <c r="T8">
-        <v>0.2256270855881165</v>
+        <v>0.2529214954814829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H9">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I9">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J9">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.3946282206765</v>
+        <v>38.58528233333333</v>
       </c>
       <c r="N9">
-        <v>38.3946282206765</v>
+        <v>115.755847</v>
       </c>
       <c r="O9">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="P9">
-        <v>0.4335771230298307</v>
+        <v>0.406569189096231</v>
       </c>
       <c r="Q9">
-        <v>1442.801770974863</v>
+        <v>1459.802735724068</v>
       </c>
       <c r="R9">
-        <v>1442.801770974863</v>
+        <v>13138.22462151661</v>
       </c>
       <c r="S9">
-        <v>0.3336193977975423</v>
+        <v>0.3055360940556713</v>
       </c>
       <c r="T9">
-        <v>0.3336193977975423</v>
+        <v>0.3055360940556713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H10">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I10">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J10">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.1922206325545</v>
+        <v>24.37857333333333</v>
       </c>
       <c r="N10">
-        <v>24.1922206325545</v>
+        <v>73.13571999999999</v>
       </c>
       <c r="O10">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="P10">
-        <v>0.2731942958603044</v>
+        <v>0.2568745436623085</v>
       </c>
       <c r="Q10">
-        <v>909.1005796916982</v>
+        <v>922.3181973274266</v>
       </c>
       <c r="R10">
-        <v>909.1005796916982</v>
+        <v>8300.86377594684</v>
       </c>
       <c r="S10">
-        <v>0.2102115439803027</v>
+        <v>0.1930408079062239</v>
       </c>
       <c r="T10">
-        <v>0.2102115439803027</v>
+        <v>0.1930408079062239</v>
       </c>
     </row>
   </sheetData>
